--- a/Code/Results/Cases/Case_0_73/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_73/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.637520790938115</v>
+        <v>9.018204081895052</v>
       </c>
       <c r="D2">
-        <v>4.330534260311045</v>
+        <v>7.607254736013832</v>
       </c>
       <c r="E2">
-        <v>7.948737782226262</v>
+        <v>13.20875538047568</v>
       </c>
       <c r="F2">
-        <v>36.1812498831631</v>
+        <v>41.98635104916717</v>
       </c>
       <c r="G2">
-        <v>2.053435012060806</v>
+        <v>3.685679427709956</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>26.42023276924013</v>
+        <v>32.25314471626252</v>
       </c>
       <c r="J2">
-        <v>5.959236367450742</v>
+        <v>10.47440925805957</v>
       </c>
       <c r="L2">
-        <v>5.85103020537185</v>
+        <v>10.38439625577701</v>
       </c>
       <c r="O2">
-        <v>27.29886545907722</v>
+        <v>32.46513917364776</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.545224482907333</v>
+        <v>9.026284143666999</v>
       </c>
       <c r="D3">
-        <v>4.324793953064019</v>
+        <v>7.619166327290333</v>
       </c>
       <c r="E3">
-        <v>7.858009727708491</v>
+        <v>13.22722596969181</v>
       </c>
       <c r="F3">
-        <v>34.43851774959871</v>
+        <v>41.76131505605763</v>
       </c>
       <c r="G3">
-        <v>2.062934601582969</v>
+        <v>3.689264724329759</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.24242200968416</v>
+        <v>32.124723341574</v>
       </c>
       <c r="J3">
-        <v>5.943283650058922</v>
+        <v>10.49420576174005</v>
       </c>
       <c r="L3">
-        <v>5.846222500145478</v>
+        <v>10.40432801276019</v>
       </c>
       <c r="O3">
-        <v>26.02946442166636</v>
+        <v>32.31302885946928</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>5.491076403298827</v>
+        <v>9.032606829518802</v>
       </c>
       <c r="D4">
-        <v>4.322766013696848</v>
+        <v>7.62717542983407</v>
       </c>
       <c r="E4">
-        <v>7.806332773105264</v>
+        <v>13.24046196189951</v>
       </c>
       <c r="F4">
-        <v>33.35465226558207</v>
+        <v>41.63325448983664</v>
       </c>
       <c r="G4">
-        <v>2.068923553849419</v>
+        <v>3.691583311878482</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.51378004635708</v>
+        <v>32.05343635976055</v>
       </c>
       <c r="J4">
-        <v>5.936317104570172</v>
+        <v>10.5076110907301</v>
       </c>
       <c r="L4">
-        <v>5.845817792600931</v>
+        <v>10.41772010662014</v>
       </c>
       <c r="O4">
-        <v>25.2420340248728</v>
+        <v>32.22733609144289</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>5.469647930318604</v>
+        <v>9.035525839060053</v>
       </c>
       <c r="D5">
-        <v>4.322307194455145</v>
+        <v>7.630614320095173</v>
       </c>
       <c r="E5">
-        <v>7.786274007652614</v>
+        <v>13.24633228767227</v>
       </c>
       <c r="F5">
-        <v>32.91000332803873</v>
+        <v>41.58365123480674</v>
       </c>
       <c r="G5">
-        <v>2.071405297829743</v>
+        <v>3.692557734000466</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.21582872088808</v>
+        <v>32.02630787008275</v>
       </c>
       <c r="J5">
-        <v>5.934170635913384</v>
+        <v>10.51338847736704</v>
       </c>
       <c r="L5">
-        <v>5.846277375356724</v>
+        <v>10.4234679692319</v>
       </c>
       <c r="O5">
-        <v>24.91950685215554</v>
+        <v>32.19437749993989</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>5.466128316591023</v>
+        <v>9.036031224016575</v>
       </c>
       <c r="D6">
-        <v>4.322252959276192</v>
+        <v>7.631195929597551</v>
       </c>
       <c r="E6">
-        <v>7.783003252148998</v>
+        <v>13.24733583348857</v>
       </c>
       <c r="F6">
-        <v>32.83600738477425</v>
+        <v>41.57557170401282</v>
       </c>
       <c r="G6">
-        <v>2.071819931652843</v>
+        <v>3.692721325708813</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.16630358728717</v>
+        <v>32.02191977967218</v>
       </c>
       <c r="J6">
-        <v>5.933855497408103</v>
+        <v>10.51436681616353</v>
       </c>
       <c r="L6">
-        <v>5.846390948081496</v>
+        <v>10.42443995059596</v>
       </c>
       <c r="O6">
-        <v>24.86586436431096</v>
+        <v>32.18902391359732</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>5.490784827400633</v>
+        <v>9.032644809586625</v>
       </c>
       <c r="D7">
-        <v>4.322758348891033</v>
+        <v>7.627221098511516</v>
       </c>
       <c r="E7">
-        <v>7.806058222976452</v>
+        <v>13.24053920161131</v>
       </c>
       <c r="F7">
-        <v>33.34866683590539</v>
+        <v>41.63257501756446</v>
       </c>
       <c r="G7">
-        <v>2.068956854254463</v>
+        <v>3.691596333369996</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.50976541328957</v>
+        <v>32.05306269155825</v>
       </c>
       <c r="J7">
-        <v>5.936285377332664</v>
+        <v>10.50768773245974</v>
       </c>
       <c r="L7">
-        <v>5.845821482900909</v>
+        <v>10.41779644777097</v>
       </c>
       <c r="O7">
-        <v>25.23769042352301</v>
+        <v>32.22688362618249</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>5.605175512517198</v>
+        <v>9.020707590515196</v>
       </c>
       <c r="D8">
-        <v>4.328238989602094</v>
+        <v>7.611217696648441</v>
       </c>
       <c r="E8">
-        <v>7.916610318004638</v>
+        <v>13.21473077934292</v>
       </c>
       <c r="F8">
-        <v>35.58350101350685</v>
+        <v>41.90668478266934</v>
       </c>
       <c r="G8">
-        <v>2.056679262120304</v>
+        <v>3.686891377877417</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>26.01544907765721</v>
+        <v>32.2073074732432</v>
       </c>
       <c r="J8">
-        <v>5.953137361604877</v>
+        <v>10.48097575740668</v>
       </c>
       <c r="L8">
-        <v>5.848834021388245</v>
+        <v>10.39102942067715</v>
       </c>
       <c r="O8">
-        <v>26.86304181667268</v>
+        <v>32.4111083723074</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>5.849375256000529</v>
+        <v>9.008095190907191</v>
       </c>
       <c r="D9">
-        <v>4.351278102963388</v>
+        <v>7.585340521830895</v>
       </c>
       <c r="E9">
-        <v>8.165976837622068</v>
+        <v>13.17915328946052</v>
       </c>
       <c r="F9">
-        <v>39.83896098580882</v>
+        <v>42.52252545928054</v>
       </c>
       <c r="G9">
-        <v>2.033747264478533</v>
+        <v>3.678590008459284</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>28.91249417672376</v>
+        <v>32.56883389625045</v>
       </c>
       <c r="J9">
-        <v>6.009501361829009</v>
+        <v>10.43850311359026</v>
       </c>
       <c r="L9">
-        <v>5.875704631549924</v>
+        <v>10.34768134080424</v>
       </c>
       <c r="O9">
-        <v>29.97395556591128</v>
+        <v>32.83228033051583</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>6.040791376232789</v>
+        <v>9.005399333771292</v>
       </c>
       <c r="D10">
-        <v>4.376316321203957</v>
+        <v>7.569669068581351</v>
       </c>
       <c r="E10">
-        <v>8.369904505566639</v>
+        <v>13.16217310825694</v>
       </c>
       <c r="F10">
-        <v>42.87193367825339</v>
+        <v>43.01989616275348</v>
       </c>
       <c r="G10">
-        <v>2.017451453198585</v>
+        <v>3.673048073627446</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>30.99526423990415</v>
+        <v>32.86899788218268</v>
       </c>
       <c r="J10">
-        <v>6.066395154549642</v>
+        <v>10.4133257084208</v>
       </c>
       <c r="L10">
-        <v>5.909323524308485</v>
+        <v>10.32138811905211</v>
       </c>
       <c r="O10">
-        <v>32.20096757706261</v>
+        <v>33.1764319951374</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>6.130481989364061</v>
+        <v>9.005595722851933</v>
       </c>
       <c r="D11">
-        <v>4.389617462081024</v>
+        <v>7.563261710337445</v>
       </c>
       <c r="E11">
-        <v>8.467385064499611</v>
+        <v>13.15643464630134</v>
       </c>
       <c r="F11">
-        <v>44.23001426178967</v>
+        <v>43.25524313501472</v>
       </c>
       <c r="G11">
-        <v>2.010121566319785</v>
+        <v>3.670646410026933</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>31.93168464947675</v>
+        <v>33.01269722577012</v>
       </c>
       <c r="J11">
-        <v>6.095937461041626</v>
+        <v>10.40317753376348</v>
       </c>
       <c r="L11">
-        <v>5.927890131610539</v>
+        <v>10.31062878041568</v>
       </c>
       <c r="O11">
-        <v>33.20029415715621</v>
+        <v>33.34009884886686</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>6.164824505492288</v>
+        <v>9.005874185416371</v>
       </c>
       <c r="D12">
-        <v>4.394942743554207</v>
+        <v>7.560938908359017</v>
       </c>
       <c r="E12">
-        <v>8.504996045846504</v>
+        <v>13.15454686261362</v>
       </c>
       <c r="F12">
-        <v>44.74118232821339</v>
+        <v>43.34560911248923</v>
       </c>
       <c r="G12">
-        <v>2.007354468538749</v>
+        <v>3.669754018713045</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>32.28468377450976</v>
+        <v>33.06810788966703</v>
       </c>
       <c r="J12">
-        <v>6.107677520948316</v>
+        <v>10.39952209487557</v>
       </c>
       <c r="L12">
-        <v>5.935414804813042</v>
+        <v>10.30672695497597</v>
       </c>
       <c r="O12">
-        <v>33.57673830096923</v>
+        <v>33.40305771350333</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>6.15741131258997</v>
+        <v>9.005805145158503</v>
       </c>
       <c r="D13">
-        <v>4.39378278970244</v>
+        <v>7.561434564993533</v>
       </c>
       <c r="E13">
-        <v>8.496864490824166</v>
+        <v>13.15494075009884</v>
       </c>
       <c r="F13">
-        <v>44.63123027022289</v>
+        <v>43.32609281546005</v>
       </c>
       <c r="G13">
-        <v>2.007950089488239</v>
+        <v>3.669945453721447</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>32.20872991100895</v>
+        <v>33.05613052324693</v>
       </c>
       <c r="J13">
-        <v>6.10512404530578</v>
+        <v>10.40030102565641</v>
       </c>
       <c r="L13">
-        <v>5.933771874895705</v>
+        <v>10.30755961536855</v>
       </c>
       <c r="O13">
-        <v>33.49575159891042</v>
+        <v>33.38945539862701</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>6.133299753550287</v>
+        <v>9.005614544916913</v>
       </c>
       <c r="D14">
-        <v>4.390049712883817</v>
+        <v>7.56306853864935</v>
       </c>
       <c r="E14">
-        <v>8.470465245180604</v>
+        <v>13.15627362253667</v>
       </c>
       <c r="F14">
-        <v>44.27213028524666</v>
+        <v>43.26265300682729</v>
       </c>
       <c r="G14">
-        <v>2.00989376453416</v>
+        <v>3.670572650996963</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>31.96075807255842</v>
+        <v>33.01723615636221</v>
       </c>
       <c r="J14">
-        <v>6.09689207901321</v>
+        <v>10.40287304306724</v>
       </c>
       <c r="L14">
-        <v>5.92849915260021</v>
+        <v>10.31030431932251</v>
       </c>
       <c r="O14">
-        <v>33.23130386118488</v>
+        <v>33.3452590760742</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>6.118580170821822</v>
+        <v>9.005524359730131</v>
       </c>
       <c r="D15">
-        <v>4.38780108425351</v>
+        <v>7.564082869342636</v>
       </c>
       <c r="E15">
-        <v>8.454386380501846</v>
+        <v>13.1571271821444</v>
       </c>
       <c r="F15">
-        <v>44.05176821835101</v>
+        <v>43.22395457002578</v>
       </c>
       <c r="G15">
-        <v>2.011085330692293</v>
+        <v>3.670959047002839</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>31.80866010881965</v>
+        <v>32.99354075721445</v>
       </c>
       <c r="J15">
-        <v>6.091922609775073</v>
+        <v>10.40447288324392</v>
       </c>
       <c r="L15">
-        <v>5.925334500368407</v>
+        <v>10.31200798617244</v>
       </c>
       <c r="O15">
-        <v>33.06906542484835</v>
+        <v>33.31831416865787</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>6.034982649950611</v>
+        <v>9.005415088211141</v>
       </c>
       <c r="D16">
-        <v>4.375486650810147</v>
+        <v>7.570102305024406</v>
       </c>
       <c r="E16">
-        <v>8.363630347925993</v>
+        <v>13.16258806578165</v>
       </c>
       <c r="F16">
-        <v>42.78274268687417</v>
+        <v>43.00469336455859</v>
       </c>
       <c r="G16">
-        <v>2.017931871075781</v>
+        <v>3.673207421731791</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>30.93384194692354</v>
+        <v>32.85974788798367</v>
       </c>
       <c r="J16">
-        <v>6.064540387093621</v>
+        <v>10.41401515957132</v>
       </c>
       <c r="L16">
-        <v>5.908177960464383</v>
+        <v>10.32211542192461</v>
       </c>
       <c r="O16">
-        <v>32.13538073190063</v>
+        <v>33.16587562754413</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>5.984368838956674</v>
+        <v>9.005712128021628</v>
       </c>
       <c r="D17">
-        <v>4.368430910562554</v>
+        <v>7.573979693102213</v>
       </c>
       <c r="E17">
-        <v>8.309174398275216</v>
+        <v>13.16644657250394</v>
       </c>
       <c r="F17">
-        <v>41.99866770245445</v>
+        <v>42.87246869764596</v>
       </c>
       <c r="G17">
-        <v>2.022151009217684</v>
+        <v>3.674617233054373</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>30.39430926392184</v>
+        <v>32.7794789714526</v>
       </c>
       <c r="J17">
-        <v>6.048698199538192</v>
+        <v>10.42020316182851</v>
       </c>
       <c r="L17">
-        <v>5.89850726974969</v>
+        <v>10.32862356017362</v>
       </c>
       <c r="O17">
-        <v>31.559049323052</v>
+        <v>33.07415235336782</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>5.955502873112377</v>
+        <v>9.006016928227037</v>
       </c>
       <c r="D18">
-        <v>4.364551634131367</v>
+        <v>7.576277805706004</v>
       </c>
       <c r="E18">
-        <v>8.278295036288156</v>
+        <v>13.16885283058792</v>
       </c>
       <c r="F18">
-        <v>41.54564600264008</v>
+        <v>42.79727609406698</v>
       </c>
       <c r="G18">
-        <v>2.024585797238544</v>
+        <v>3.675439362867501</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>30.08294173432479</v>
+        <v>32.73398585690953</v>
       </c>
       <c r="J18">
-        <v>6.039929079340824</v>
+        <v>10.42388519847875</v>
       </c>
       <c r="L18">
-        <v>5.893251542589343</v>
+        <v>10.33247998486343</v>
       </c>
       <c r="O18">
-        <v>31.22625992110861</v>
+        <v>33.02206739528952</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>5.945771531564544</v>
+        <v>9.006143148208228</v>
       </c>
       <c r="D19">
-        <v>4.363268527301952</v>
+        <v>7.577067583710452</v>
       </c>
       <c r="E19">
-        <v>8.267915232156788</v>
+        <v>13.1696996652161</v>
       </c>
       <c r="F19">
-        <v>41.39191130020678</v>
+        <v>42.77196664371701</v>
       </c>
       <c r="G19">
-        <v>2.025411654517755</v>
+        <v>3.675719656104098</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>29.97734052478223</v>
+        <v>32.71869967669828</v>
       </c>
       <c r="J19">
-        <v>6.03701812216708</v>
+        <v>10.42515298103302</v>
       </c>
       <c r="L19">
-        <v>5.891524024718427</v>
+        <v>10.33380514025136</v>
       </c>
       <c r="O19">
-        <v>31.11336129224702</v>
+        <v>33.00454892169331</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>5.989731321101445</v>
+        <v>9.005666647555509</v>
       </c>
       <c r="D20">
-        <v>4.36916338605684</v>
+        <v>7.573559908625304</v>
       </c>
       <c r="E20">
-        <v>8.314925424229529</v>
+        <v>13.16601648169843</v>
       </c>
       <c r="F20">
-        <v>42.08234549474989</v>
+        <v>42.88645572307826</v>
       </c>
       <c r="G20">
-        <v>2.021701064796136</v>
+        <v>3.674465993301131</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>30.45185166652162</v>
+        <v>32.78795406793973</v>
       </c>
       <c r="J20">
-        <v>6.050348954369006</v>
+        <v>10.41953172435052</v>
       </c>
       <c r="L20">
-        <v>5.899504837281607</v>
+        <v>10.32791905275524</v>
       </c>
       <c r="O20">
-        <v>31.6205354472046</v>
+        <v>33.08384720834117</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>6.140371589435386</v>
+        <v>9.005664994133303</v>
       </c>
       <c r="D21">
-        <v>4.391138264991369</v>
+        <v>7.562585793322901</v>
       </c>
       <c r="E21">
-        <v>8.478200248544395</v>
+        <v>13.15587438700863</v>
       </c>
       <c r="F21">
-        <v>44.37769049020454</v>
+        <v>43.28125352867678</v>
       </c>
       <c r="G21">
-        <v>2.009322656373906</v>
+        <v>3.670387965579219</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>32.03363670251305</v>
+        <v>33.0286336533356</v>
       </c>
       <c r="J21">
-        <v>6.099294774957935</v>
+        <v>10.40211249359345</v>
       </c>
       <c r="L21">
-        <v>5.930034279962597</v>
+        <v>10.30949345385319</v>
       </c>
       <c r="O21">
-        <v>33.30903194061752</v>
+        <v>33.35821429584371</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>6.241034409449194</v>
+        <v>9.006853241747558</v>
       </c>
       <c r="D22">
-        <v>4.407188638964573</v>
+        <v>7.556016883257723</v>
       </c>
       <c r="E22">
-        <v>8.588985453438703</v>
+        <v>13.15090837898058</v>
       </c>
       <c r="F22">
-        <v>45.85978799208915</v>
+        <v>43.54650422214602</v>
       </c>
       <c r="G22">
-        <v>2.00128074566863</v>
+        <v>3.667822168972772</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>33.05812262615031</v>
+        <v>33.19171344840973</v>
       </c>
       <c r="J22">
-        <v>6.134521234288557</v>
+        <v>10.39182053544974</v>
       </c>
       <c r="L22">
-        <v>5.952878109005256</v>
+        <v>10.29845660139298</v>
       </c>
       <c r="O22">
-        <v>34.40107682127484</v>
+        <v>33.54323145197276</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>6.187104709860066</v>
+        <v>9.006110413439359</v>
       </c>
       <c r="D23">
-        <v>4.398462889921831</v>
+        <v>7.559467714310565</v>
       </c>
       <c r="E23">
-        <v>8.529476965830669</v>
+        <v>13.15340684386442</v>
       </c>
       <c r="F23">
-        <v>45.07038945903926</v>
+        <v>43.40429471456949</v>
       </c>
       <c r="G23">
-        <v>2.005569688337626</v>
+        <v>3.669182518467133</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>32.51217375893984</v>
+        <v>33.10415728504517</v>
       </c>
       <c r="J23">
-        <v>6.115414580353119</v>
+        <v>10.39721365926365</v>
       </c>
       <c r="L23">
-        <v>5.94041320112072</v>
+        <v>10.30425528349487</v>
       </c>
       <c r="O23">
-        <v>33.81926455489343</v>
+        <v>33.44397646497093</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>5.98730621861434</v>
+        <v>9.00568679176877</v>
       </c>
       <c r="D24">
-        <v>4.368831683073241</v>
+        <v>7.573749478405446</v>
       </c>
       <c r="E24">
-        <v>8.312324053416873</v>
+        <v>13.16621034029263</v>
       </c>
       <c r="F24">
-        <v>42.04452176139433</v>
+        <v>42.88012961397627</v>
       </c>
       <c r="G24">
-        <v>2.021904455920407</v>
+        <v>3.674534332620016</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>30.42584042910003</v>
+        <v>32.78412043535857</v>
       </c>
       <c r="J24">
-        <v>6.04960159491537</v>
+        <v>10.41983489350363</v>
       </c>
       <c r="L24">
-        <v>5.899052891585291</v>
+        <v>10.32823720292236</v>
       </c>
       <c r="O24">
-        <v>31.59274208213169</v>
+        <v>33.07946214291092</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>5.781199723260205</v>
+        <v>9.010352202670155</v>
       </c>
       <c r="D25">
-        <v>4.34366824689632</v>
+        <v>7.591753207560978</v>
       </c>
       <c r="E25">
-        <v>8.09494282347671</v>
+        <v>13.18716891447904</v>
       </c>
       <c r="F25">
-        <v>38.70337380090213</v>
+        <v>42.3478185486144</v>
       </c>
       <c r="G25">
-        <v>2.039842630353952</v>
+        <v>3.680737427174988</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>28.13617666862593</v>
+        <v>32.46484992796653</v>
       </c>
       <c r="J25">
-        <v>5.991629976680097</v>
+        <v>10.44893360170688</v>
       </c>
       <c r="L25">
-        <v>5.866081524315939</v>
+        <v>10.35843133447792</v>
       </c>
       <c r="O25">
-        <v>29.1420543239384</v>
+        <v>32.71210494073968</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_73/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_73/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.018204081895052</v>
+        <v>5.637520790938115</v>
       </c>
       <c r="D2">
-        <v>7.607254736013832</v>
+        <v>4.33053426031103</v>
       </c>
       <c r="E2">
-        <v>13.20875538047568</v>
+        <v>7.94873778222621</v>
       </c>
       <c r="F2">
-        <v>41.98635104916717</v>
+        <v>36.18124988316298</v>
       </c>
       <c r="G2">
-        <v>3.685679427709956</v>
+        <v>2.053435012060936</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>32.25314471626252</v>
+        <v>26.42023276924006</v>
       </c>
       <c r="J2">
-        <v>10.47440925805957</v>
+        <v>5.959236367450692</v>
       </c>
       <c r="L2">
-        <v>10.38439625577701</v>
+        <v>5.851030205371761</v>
       </c>
       <c r="O2">
-        <v>32.46513917364776</v>
+        <v>27.29886545907714</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9.026284143666999</v>
+        <v>5.545224482907533</v>
       </c>
       <c r="D3">
-        <v>7.619166327290333</v>
+        <v>4.324793953064073</v>
       </c>
       <c r="E3">
-        <v>13.22722596969181</v>
+        <v>7.858009727708542</v>
       </c>
       <c r="F3">
-        <v>41.76131505605763</v>
+        <v>34.43851774959862</v>
       </c>
       <c r="G3">
-        <v>3.689264724329759</v>
+        <v>2.062934601583103</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>32.124723341574</v>
+        <v>25.24242200968409</v>
       </c>
       <c r="J3">
-        <v>10.49420576174005</v>
+        <v>5.943283650058953</v>
       </c>
       <c r="L3">
-        <v>10.40432801276019</v>
+        <v>5.8462225001455</v>
       </c>
       <c r="O3">
-        <v>32.31302885946928</v>
+        <v>26.02946442166628</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>9.032606829518802</v>
+        <v>5.491076403298851</v>
       </c>
       <c r="D4">
-        <v>7.62717542983407</v>
+        <v>4.3227660136966</v>
       </c>
       <c r="E4">
-        <v>13.24046196189951</v>
+        <v>7.806332773105199</v>
       </c>
       <c r="F4">
-        <v>41.63325448983664</v>
+        <v>33.35465226558216</v>
       </c>
       <c r="G4">
-        <v>3.691583311878482</v>
+        <v>2.068923553849552</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32.05343635976055</v>
+        <v>24.51378004635718</v>
       </c>
       <c r="J4">
-        <v>10.5076110907301</v>
+        <v>5.936317104570219</v>
       </c>
       <c r="L4">
-        <v>10.41772010662014</v>
+        <v>5.845817792600914</v>
       </c>
       <c r="O4">
-        <v>32.22733609144289</v>
+        <v>25.24203402487291</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>9.035525839060053</v>
+        <v>5.469647930318605</v>
       </c>
       <c r="D5">
-        <v>7.630614320095173</v>
+        <v>4.322307194454955</v>
       </c>
       <c r="E5">
-        <v>13.24633228767227</v>
+        <v>7.786274007652606</v>
       </c>
       <c r="F5">
-        <v>41.58365123480674</v>
+        <v>32.91000332803867</v>
       </c>
       <c r="G5">
-        <v>3.692557734000466</v>
+        <v>2.071405297830143</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>32.02630787008275</v>
+        <v>24.21582872088807</v>
       </c>
       <c r="J5">
-        <v>10.51338847736704</v>
+        <v>5.934170635913472</v>
       </c>
       <c r="L5">
-        <v>10.4234679692319</v>
+        <v>5.846277375356728</v>
       </c>
       <c r="O5">
-        <v>32.19437749993989</v>
+        <v>24.91950685215554</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>9.036031224016575</v>
+        <v>5.466128316591023</v>
       </c>
       <c r="D6">
-        <v>7.631195929597551</v>
+        <v>4.322252959276309</v>
       </c>
       <c r="E6">
-        <v>13.24733583348857</v>
+        <v>7.783003252148999</v>
       </c>
       <c r="F6">
-        <v>41.57557170401282</v>
+        <v>32.83600738477421</v>
       </c>
       <c r="G6">
-        <v>3.692721325708813</v>
+        <v>2.071819931652975</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>32.02191977967218</v>
+        <v>24.16630358728715</v>
       </c>
       <c r="J6">
-        <v>10.51436681616353</v>
+        <v>5.933855497408047</v>
       </c>
       <c r="L6">
-        <v>10.42443995059596</v>
+        <v>5.846390948081496</v>
       </c>
       <c r="O6">
-        <v>32.18902391359732</v>
+        <v>24.86586436431093</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>9.032644809586625</v>
+        <v>5.490784827400732</v>
       </c>
       <c r="D7">
-        <v>7.627221098511516</v>
+        <v>4.322758348891024</v>
       </c>
       <c r="E7">
-        <v>13.24053920161131</v>
+        <v>7.806058222976403</v>
       </c>
       <c r="F7">
-        <v>41.63257501756446</v>
+        <v>33.34866683590532</v>
       </c>
       <c r="G7">
-        <v>3.691596333369996</v>
+        <v>2.068956854254329</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.05306269155825</v>
+        <v>24.50976541328952</v>
       </c>
       <c r="J7">
-        <v>10.50768773245974</v>
+        <v>5.936285377332577</v>
       </c>
       <c r="L7">
-        <v>10.41779644777097</v>
+        <v>5.84582148290085</v>
       </c>
       <c r="O7">
-        <v>32.22688362618249</v>
+        <v>25.23769042352295</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>9.020707590515196</v>
+        <v>5.605175512517362</v>
       </c>
       <c r="D8">
-        <v>7.611217696648441</v>
+        <v>4.328238989602024</v>
       </c>
       <c r="E8">
-        <v>13.21473077934292</v>
+        <v>7.916610318004717</v>
       </c>
       <c r="F8">
-        <v>41.90668478266934</v>
+        <v>35.58350101350694</v>
       </c>
       <c r="G8">
-        <v>3.686891377877417</v>
+        <v>2.056679262120434</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>32.2073074732432</v>
+        <v>26.01544907765729</v>
       </c>
       <c r="J8">
-        <v>10.48097575740668</v>
+        <v>5.953137361605033</v>
       </c>
       <c r="L8">
-        <v>10.39102942067715</v>
+        <v>5.848834021388317</v>
       </c>
       <c r="O8">
-        <v>32.4111083723074</v>
+        <v>26.86304181667276</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>9.008095190907191</v>
+        <v>5.849375256000595</v>
       </c>
       <c r="D9">
-        <v>7.585340521830895</v>
+        <v>4.351278102963456</v>
       </c>
       <c r="E9">
-        <v>13.17915328946052</v>
+        <v>8.165976837622042</v>
       </c>
       <c r="F9">
-        <v>42.52252545928054</v>
+        <v>39.83896098580872</v>
       </c>
       <c r="G9">
-        <v>3.678590008459284</v>
+        <v>2.033747264478664</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>32.56883389625045</v>
+        <v>28.91249417672366</v>
       </c>
       <c r="J9">
-        <v>10.43850311359026</v>
+        <v>6.009501361828988</v>
       </c>
       <c r="L9">
-        <v>10.34768134080424</v>
+        <v>5.875704631549889</v>
       </c>
       <c r="O9">
-        <v>32.83228033051583</v>
+        <v>29.97395556591118</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>9.005399333771292</v>
+        <v>6.040791376232773</v>
       </c>
       <c r="D10">
-        <v>7.569669068581351</v>
+        <v>4.376316321203911</v>
       </c>
       <c r="E10">
-        <v>13.16217310825694</v>
+        <v>8.369904505566602</v>
       </c>
       <c r="F10">
-        <v>43.01989616275348</v>
+        <v>42.87193367825338</v>
       </c>
       <c r="G10">
-        <v>3.673048073627446</v>
+        <v>2.017451453198585</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>32.86899788218268</v>
+        <v>30.99526423990412</v>
       </c>
       <c r="J10">
-        <v>10.4133257084208</v>
+        <v>6.066395154549642</v>
       </c>
       <c r="L10">
-        <v>10.32138811905211</v>
+        <v>5.909323524308444</v>
       </c>
       <c r="O10">
-        <v>33.1764319951374</v>
+        <v>32.20096757706258</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>9.005595722851933</v>
+        <v>6.130481989363991</v>
       </c>
       <c r="D11">
-        <v>7.563261710337445</v>
+        <v>4.389617462080894</v>
       </c>
       <c r="E11">
-        <v>13.15643464630134</v>
+        <v>8.467385064499581</v>
       </c>
       <c r="F11">
-        <v>43.25524313501472</v>
+        <v>44.2300142617897</v>
       </c>
       <c r="G11">
-        <v>3.670646410026933</v>
+        <v>2.010121566319927</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>33.01269722577012</v>
+        <v>31.93168464947679</v>
       </c>
       <c r="J11">
-        <v>10.40317753376348</v>
+        <v>6.095937461041653</v>
       </c>
       <c r="L11">
-        <v>10.31062878041568</v>
+        <v>5.927890131610473</v>
       </c>
       <c r="O11">
-        <v>33.34009884886686</v>
+        <v>33.20029415715625</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>9.005874185416371</v>
+        <v>6.164824505492426</v>
       </c>
       <c r="D12">
-        <v>7.560938908359017</v>
+        <v>4.394942743554066</v>
       </c>
       <c r="E12">
-        <v>13.15454686261362</v>
+        <v>8.504996045846546</v>
       </c>
       <c r="F12">
-        <v>43.34560911248923</v>
+        <v>44.74118232821338</v>
       </c>
       <c r="G12">
-        <v>3.669754018713045</v>
+        <v>2.007354468538616</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>33.06810788966703</v>
+        <v>32.28468377450977</v>
       </c>
       <c r="J12">
-        <v>10.39952209487557</v>
+        <v>6.107677520948382</v>
       </c>
       <c r="L12">
-        <v>10.30672695497597</v>
+        <v>5.935414804813023</v>
       </c>
       <c r="O12">
-        <v>33.40305771350333</v>
+        <v>33.57673830096923</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>9.005805145158503</v>
+        <v>6.157411312589971</v>
       </c>
       <c r="D13">
-        <v>7.561434564993533</v>
+        <v>4.393782789702412</v>
       </c>
       <c r="E13">
-        <v>13.15494075009884</v>
+        <v>8.496864490824217</v>
       </c>
       <c r="F13">
-        <v>43.32609281546005</v>
+        <v>44.63123027022286</v>
       </c>
       <c r="G13">
-        <v>3.669945453721447</v>
+        <v>2.007950089487982</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>33.05613052324693</v>
+        <v>32.20872991100897</v>
       </c>
       <c r="J13">
-        <v>10.40030102565641</v>
+        <v>6.105124045305814</v>
       </c>
       <c r="L13">
-        <v>10.30755961536855</v>
+        <v>5.933771874895728</v>
       </c>
       <c r="O13">
-        <v>33.38945539862701</v>
+        <v>33.49575159891041</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>9.005614544916913</v>
+        <v>6.133299753550189</v>
       </c>
       <c r="D14">
-        <v>7.56306853864935</v>
+        <v>4.390049712883686</v>
       </c>
       <c r="E14">
-        <v>13.15627362253667</v>
+        <v>8.470465245180533</v>
       </c>
       <c r="F14">
-        <v>43.26265300682729</v>
+        <v>44.27213028524664</v>
       </c>
       <c r="G14">
-        <v>3.670572650996963</v>
+        <v>2.009893764534166</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>33.01723615636221</v>
+        <v>31.9607580725584</v>
       </c>
       <c r="J14">
-        <v>10.40287304306724</v>
+        <v>6.09689207901322</v>
       </c>
       <c r="L14">
-        <v>10.31030431932251</v>
+        <v>5.928499152600196</v>
       </c>
       <c r="O14">
-        <v>33.3452590760742</v>
+        <v>33.23130386118488</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>9.005524359730131</v>
+        <v>6.118580170821795</v>
       </c>
       <c r="D15">
-        <v>7.564082869342636</v>
+        <v>4.387801084253465</v>
       </c>
       <c r="E15">
-        <v>13.1571271821444</v>
+        <v>8.454386380501846</v>
       </c>
       <c r="F15">
-        <v>43.22395457002578</v>
+        <v>44.05176821835103</v>
       </c>
       <c r="G15">
-        <v>3.670959047002839</v>
+        <v>2.011085330692425</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>32.99354075721445</v>
+        <v>31.80866010881965</v>
       </c>
       <c r="J15">
-        <v>10.40447288324392</v>
+        <v>6.091922609775051</v>
       </c>
       <c r="L15">
-        <v>10.31200798617244</v>
+        <v>5.92533450036841</v>
       </c>
       <c r="O15">
-        <v>33.31831416865787</v>
+        <v>33.06906542484836</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>9.005415088211141</v>
+        <v>6.034982649950654</v>
       </c>
       <c r="D16">
-        <v>7.570102305024406</v>
+        <v>4.37548665080998</v>
       </c>
       <c r="E16">
-        <v>13.16258806578165</v>
+        <v>8.363630347926007</v>
       </c>
       <c r="F16">
-        <v>43.00469336455859</v>
+        <v>42.78274268687421</v>
       </c>
       <c r="G16">
-        <v>3.673207421731791</v>
+        <v>2.017931871075783</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>32.85974788798367</v>
+        <v>30.93384194692359</v>
       </c>
       <c r="J16">
-        <v>10.41401515957132</v>
+        <v>6.064540387093676</v>
       </c>
       <c r="L16">
-        <v>10.32211542192461</v>
+        <v>5.908177960464403</v>
       </c>
       <c r="O16">
-        <v>33.16587562754413</v>
+        <v>32.13538073190067</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>9.005712128021628</v>
+        <v>5.984368838956701</v>
       </c>
       <c r="D17">
-        <v>7.573979693102213</v>
+        <v>4.368430910562499</v>
       </c>
       <c r="E17">
-        <v>13.16644657250394</v>
+        <v>8.309174398275184</v>
       </c>
       <c r="F17">
-        <v>42.87246869764596</v>
+        <v>41.99866770245448</v>
       </c>
       <c r="G17">
-        <v>3.674617233054373</v>
+        <v>2.022151009217821</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>32.7794789714526</v>
+        <v>30.39430926392186</v>
       </c>
       <c r="J17">
-        <v>10.42020316182851</v>
+        <v>6.048698199538226</v>
       </c>
       <c r="L17">
-        <v>10.32862356017362</v>
+        <v>5.898507269749692</v>
       </c>
       <c r="O17">
-        <v>33.07415235336782</v>
+        <v>31.55904932305201</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>9.006016928227037</v>
+        <v>5.955502873112314</v>
       </c>
       <c r="D18">
-        <v>7.576277805706004</v>
+        <v>4.36455163413135</v>
       </c>
       <c r="E18">
-        <v>13.16885283058792</v>
+        <v>8.278295036288069</v>
       </c>
       <c r="F18">
-        <v>42.79727609406698</v>
+        <v>41.5456460026401</v>
       </c>
       <c r="G18">
-        <v>3.675439362867501</v>
+        <v>2.024585797238678</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>32.73398585690953</v>
+        <v>30.08294173432481</v>
       </c>
       <c r="J18">
-        <v>10.42388519847875</v>
+        <v>6.039929079340808</v>
       </c>
       <c r="L18">
-        <v>10.33247998486343</v>
+        <v>5.89325154258931</v>
       </c>
       <c r="O18">
-        <v>33.02206739528952</v>
+        <v>31.22625992110864</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>9.006143148208228</v>
+        <v>5.945771531564584</v>
       </c>
       <c r="D19">
-        <v>7.577067583710452</v>
+        <v>4.363268527302013</v>
       </c>
       <c r="E19">
-        <v>13.1696996652161</v>
+        <v>8.267915232156847</v>
       </c>
       <c r="F19">
-        <v>42.77196664371701</v>
+        <v>41.39191130020681</v>
       </c>
       <c r="G19">
-        <v>3.675719656104098</v>
+        <v>2.025411654517755</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>32.71869967669828</v>
+        <v>29.97734052478227</v>
       </c>
       <c r="J19">
-        <v>10.42515298103302</v>
+        <v>6.037018122167048</v>
       </c>
       <c r="L19">
-        <v>10.33380514025136</v>
+        <v>5.89152402471843</v>
       </c>
       <c r="O19">
-        <v>33.00454892169331</v>
+        <v>31.11336129224703</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>9.005666647555509</v>
+        <v>5.989731321101385</v>
       </c>
       <c r="D20">
-        <v>7.573559908625304</v>
+        <v>4.369163386056798</v>
       </c>
       <c r="E20">
-        <v>13.16601648169843</v>
+        <v>8.314925424229482</v>
       </c>
       <c r="F20">
-        <v>42.88645572307826</v>
+        <v>42.08234549474991</v>
       </c>
       <c r="G20">
-        <v>3.674465993301131</v>
+        <v>2.021701064796136</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>32.78795406793973</v>
+        <v>30.45185166652163</v>
       </c>
       <c r="J20">
-        <v>10.41953172435052</v>
+        <v>6.050348954369037</v>
       </c>
       <c r="L20">
-        <v>10.32791905275524</v>
+        <v>5.899504837281629</v>
       </c>
       <c r="O20">
-        <v>33.08384720834117</v>
+        <v>31.62053544720462</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>9.005664994133303</v>
+        <v>6.14037158943547</v>
       </c>
       <c r="D21">
-        <v>7.562585793322901</v>
+        <v>4.391138264991449</v>
       </c>
       <c r="E21">
-        <v>13.15587438700863</v>
+        <v>8.478200248544477</v>
       </c>
       <c r="F21">
-        <v>43.28125352867678</v>
+        <v>44.37769049020453</v>
       </c>
       <c r="G21">
-        <v>3.670387965579219</v>
+        <v>2.009322656373902</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>33.0286336533356</v>
+        <v>32.03363670251306</v>
       </c>
       <c r="J21">
-        <v>10.40211249359345</v>
+        <v>6.099294774957978</v>
       </c>
       <c r="L21">
-        <v>10.30949345385319</v>
+        <v>5.930034279962601</v>
       </c>
       <c r="O21">
-        <v>33.35821429584371</v>
+        <v>33.30903194061752</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>9.006853241747558</v>
+        <v>6.241034409449061</v>
       </c>
       <c r="D22">
-        <v>7.556016883257723</v>
+        <v>4.40718863896444</v>
       </c>
       <c r="E22">
-        <v>13.15090837898058</v>
+        <v>8.58898545343868</v>
       </c>
       <c r="F22">
-        <v>43.54650422214602</v>
+        <v>45.85978799208917</v>
       </c>
       <c r="G22">
-        <v>3.667822168972772</v>
+        <v>2.001280745668635</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>33.19171344840973</v>
+        <v>33.05812262615031</v>
       </c>
       <c r="J22">
-        <v>10.39182053544974</v>
+        <v>6.134521234288569</v>
       </c>
       <c r="L22">
-        <v>10.29845660139298</v>
+        <v>5.952878109005255</v>
       </c>
       <c r="O22">
-        <v>33.54323145197276</v>
+        <v>34.40107682127486</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>9.006110413439359</v>
+        <v>6.187104709859984</v>
       </c>
       <c r="D23">
-        <v>7.559467714310565</v>
+        <v>4.398462889921771</v>
       </c>
       <c r="E23">
-        <v>13.15340684386442</v>
+        <v>8.529476965830613</v>
       </c>
       <c r="F23">
-        <v>43.40429471456949</v>
+        <v>45.07038945903926</v>
       </c>
       <c r="G23">
-        <v>3.669182518467133</v>
+        <v>2.005569688337618</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>33.10415728504517</v>
+        <v>32.51217375893983</v>
       </c>
       <c r="J23">
-        <v>10.39721365926365</v>
+        <v>6.115414580353154</v>
       </c>
       <c r="L23">
-        <v>10.30425528349487</v>
+        <v>5.940413201120773</v>
       </c>
       <c r="O23">
-        <v>33.44397646497093</v>
+        <v>33.81926455489345</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>9.00568679176877</v>
+        <v>5.987306218614505</v>
       </c>
       <c r="D24">
-        <v>7.573749478405446</v>
+        <v>4.368831683073339</v>
       </c>
       <c r="E24">
-        <v>13.16621034029263</v>
+        <v>8.312324053416994</v>
       </c>
       <c r="F24">
-        <v>42.88012961397627</v>
+        <v>42.04452176139433</v>
       </c>
       <c r="G24">
-        <v>3.674534332620016</v>
+        <v>2.021904455920407</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>32.78412043535857</v>
+        <v>30.42584042910004</v>
       </c>
       <c r="J24">
-        <v>10.41983489350363</v>
+        <v>6.049601594915421</v>
       </c>
       <c r="L24">
-        <v>10.32823720292236</v>
+        <v>5.899052891585364</v>
       </c>
       <c r="O24">
-        <v>33.07946214291092</v>
+        <v>31.59274208213169</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>9.010352202670155</v>
+        <v>5.781199723260146</v>
       </c>
       <c r="D25">
-        <v>7.591753207560978</v>
+        <v>4.343668246896312</v>
       </c>
       <c r="E25">
-        <v>13.18716891447904</v>
+        <v>8.094942823476664</v>
       </c>
       <c r="F25">
-        <v>42.3478185486144</v>
+        <v>38.70337380090211</v>
       </c>
       <c r="G25">
-        <v>3.680737427174988</v>
+        <v>2.039842630353818</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>32.46484992796653</v>
+        <v>28.1361766686259</v>
       </c>
       <c r="J25">
-        <v>10.44893360170688</v>
+        <v>5.991629976680043</v>
       </c>
       <c r="L25">
-        <v>10.35843133447792</v>
+        <v>5.866081524315833</v>
       </c>
       <c r="O25">
-        <v>32.71210494073968</v>
+        <v>29.14205432393838</v>
       </c>
     </row>
   </sheetData>
